--- a/biology/Origine et évolution du vivant/Liste_d'animaux_fossiles_par_pays/Liste_d'animaux_fossiles_par_pays.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_d'animaux_fossiles_par_pays/Liste_d'animaux_fossiles_par_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste d'animaux fossiles par pays, non-exhaustive, présente des exemples de lignées fossiles classées par ordre alphabétique des pays actuels (sachant que de nombreuses lignées sont présentes dans plusieurs pays) et, à l'intérieur de chaque pays, par ordre alphabétique des noms scientifiques[1],[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste d'animaux fossiles par pays, non-exhaustive, présente des exemples de lignées fossiles classées par ordre alphabétique des pays actuels (sachant que de nombreuses lignées sont présentes dans plusieurs pays) et, à l'intérieur de chaque pays, par ordre alphabétique des noms scientifiques.
 Sommaire :
 Haut – A
 B
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,7 +552,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Afrique du Sud
+          <t xml:space="preserve"> Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aachenosaurus
 Aardonyx
 Agriotherium (en)
@@ -620,7 +638,43 @@
 Thrinaxodon
 Titanosuchus
 Youngina
- Algérie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Algérie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Brachiosaurus
 Chebsaurus
 Elosuchus
@@ -632,7 +686,43 @@
 Spinosaurus
 Sauropoda
 Theropithecus brumpti (en)
- Allemagne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aachenosaurus
 Acanthodes (en)
 Aegialornis (en)
@@ -753,10 +843,82 @@
 Thrissops
 Ursus spelaeus
 Wellnhoferia
- Angola
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Angola</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arsinoitherium
 Hippopotamus gorgops
- Antarctique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antarctique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anatophoca[réf. nécessaire]
 Ankylosaurus
 Annatherapsidus
@@ -774,10 +936,82 @@
 Taniwhasaurus
 Thrinaxodon
 Vegavis
- Arabie saoudite
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arabie saoudite</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Afropithecus
 Gazella psolea (en)
- Argentine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abelisaurus
 Achillesaurus
 Adinotherium (en)
@@ -945,8 +1179,47 @@
 Xenotarsosaurus
 Zapalasaurus
 Zupaysaurus
- Australie
-Australie-Méridionale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Australie-Méridionale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dickinsonia
 Kakuru
 Praecambridium
@@ -954,7 +1227,47 @@
 Tétraptera
 Tribrachidium
 Wakaleo
-Australie occidentale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Australie occidentale</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bicornis
 Bullockornis
 Ctenurella
@@ -975,11 +1288,127 @@
 Thylacine
 Thylacoleo
 Wonambi
-Île Lord Howe
-Meiolania
-Île Norfolk
-Microfaustus
-Nouvelle-Galles du Sud
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Île Lord Howe</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Meiolania</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Île Norfolk</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Microfaustus</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nouvelle-Galles du Sud</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Diprotodon
 Fulgurotherium
 Gooloogongia
@@ -995,7 +1424,47 @@
 Tylacoléo
 Walgettosuchus
 Woolungasaurus
-Queensland
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alamitophis
 Australonyctéris
 Austrosaure
@@ -1041,12 +1510,92 @@
 Worgan
 Yalkaparidon
 Yarala
-Tasmanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tasmanie</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dromaius
 Megalibgwilia
 Thylacine
 Yerao
-Territoire du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Territoire du Nord</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arandaspis
 Babtomonotrenus
 Baru
@@ -1061,7 +1610,47 @@
 Thylacine
 Tribrachidium
 Wakaleo
-Victoria
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Allosaurus
 Atlascopcosaure
@@ -1081,7 +1670,43 @@
 Timimus
 Tylacoléo
 Zygomaturus
- Autriche
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Arcetes
 Austriadactylus
@@ -1101,35 +1726,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bahamas
-Tyto pollens
- Belgique
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bahamas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tyto pollens</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aglaocetus
 Altispinax
 Amiopsis
@@ -1171,21 +1836,229 @@
 Scaldicetus
 Strudiella
 Ursus spelaeus
- Biélorussie
-Orthoceras
- Birmanie
-Stégodon
- Bolivie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Biélorussie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Orthoceras</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Birmanie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stégodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bolivie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Branisella
 Glyptodon
 Macrauchenia
 Mégathérium
 Sacabambaspis
- Bosnie-Herzégovine
-Hemicyon (en)
- Botswana
-Hippopotamus
- Brésil
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bosnie-Herzégovine</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hemicyon (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Botswana</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Hippopotamus</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brésil</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adamantinasuchus
 Adamantisaurus
 Amazonsaurus
@@ -1250,38 +2123,83 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cambodge
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cambodge</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Laosaurus
 Nothosaurus
 Titanosaurus
- Canada
-Alberta
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alberta</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albertaceratops
 Albertonykus
 Albertosaurus
@@ -1349,7 +2267,47 @@
 Triceratops
 Troodon
 Tyrannosaurus rex
-Colombie-Britannique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Colombie-Britannique</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agkistrognathus
 Amiskwia
 Anomalocaris
@@ -1374,14 +2332,132 @@
 Waptia
 Wiwaxia
 Yohoia
-Île-du-Prince-Édouard
-Bathygnathus
-Manitoba
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Île-du-Prince-Édouard</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bathygnathus</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Manitoba</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hesperornis
 Isotelus
 Lunataspis
 Platecarpus
-Nouvelle-Écosse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Nouvelle-Écosse</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ammosaurus
 Anchisaurus
 Archaeothyris
@@ -1391,19 +2467,177 @@
 Paleothyris
 Protosuchus
 Scutellosaurus
-Nunavut
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Nunavut</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arctosaurus
 Romundina
 Tiktaalik
-Ontario
-Isotelus
-Québec
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ontario</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Isotelus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Astraspis
 Eusthenopteron
 Grand Pingouin
 Isotelus
 Quebecius
-Saskatchewan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alphadon
 Ankylosaurus
 Caenagnathasia
@@ -1423,16 +2657,170 @@
 Tricératops
 Troodon
 Tyrannosaure rex
-Terre-Neuve-et-Labrador
-Grand Pingouin
-Territoire du Nord-Ouest
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Terre-Neuve-et-Labrador</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Grand Pingouin</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Territoire du Nord-Ouest</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hesperornis
 Lambéosaure
 Platecarpus
-Yukon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yukon</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arctodus
 Panthera leo
- Chili
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chili</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antarctosaurus
 Domeykosaure
 Geosaure
@@ -1441,7 +2829,43 @@
 Metriorhynchus
 Neogaeornis
 Ophthalmosaure
- Chine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chine</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abrosaurus
 Agilisaurus
 Agriotherium (en)
@@ -1751,30 +3175,278 @@
 Zhongyuansaure
 Zhuchengosaure
 Zizhongosaurus
- Colombie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colombie</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antarctosaurus
 Callawagasaure
 Cerdocyon
 Granastrapotherium
 Kronosaure
- Chypre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chypre</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Elephas falconeri
 Hippopotamus
- Corée du Nord
-Proornis
- Corée du Sud
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corée du Nord</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Proornis</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corée du Sud</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Brachiosaure
 Chiayusaure
 Deinonychus
 Kentriodon
 Pukyongosaure
 Ultrasaurus
- Costa Rica
-Desmostylus
- Croatie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Desmostylus</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croatie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Histriasaure
 Ursus spelaeus
- Cuba
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuba</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acratocnus
 Buteogallus Borrasi
 Cacibuptéryx
@@ -1787,33 +3459,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Danemark
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Danemark</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aigialosuchus
 Baculites
 Cremnoceramus
@@ -1835,33 +3513,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Égypte
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Égypte</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aegyptopithecus
 Aegyptosaurus
 Anthracotherium
@@ -1897,10 +3581,82 @@
 Spinosaure
 Stomatosuchus
 Witwatia (en)
- Émirats arabes unis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Émirats arabes unis</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Archaeopotamus (en)
 Ardea bennuides
- Espagne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Allodaposuchus
 Ampelomeryx
@@ -1950,12 +3706,87 @@
 Turiasaure
 Ursus spelaeus
 Vallibonavenatrix
- Estonie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Estonie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dartmuthia
 Orthoceras
 Trémataspis
- États-Unis
-Alabama
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Appalachisaure
 Basilosaure
 Enchodus
@@ -1967,7 +3798,47 @@
 Plioplatecarpus
 Ptéranodon
 Xiphactinus
-Alaska
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alaskacephale
 Albertosaure
 Anchicératops
@@ -1993,7 +3864,47 @@
 Thescelosaurus
 Troodon
 Tyrannosaure rex
-Arizona
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Ammosaurus
 Aridovangaurda
@@ -2031,11 +3942,91 @@
 Tératornis
 Trilophosaurus
 Tyrannosaure rex
-Arkansas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arkansaure
 Cervalces
 Dasypus bellus
-Californie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Californie</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aiolornis
 Aletopelta
 Annulocéras
@@ -2090,7 +4081,47 @@
 Tératornis
 Thalattosaurus
 Valenictus
-Caroline du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Caroline du Nord</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dryptosaure
 Gavialosuchus
 Hadrosaure
@@ -2101,9 +4132,87 @@
 Pékinosaure
 Rutiodon
 Trachodon
-Caroline du Sud
-Neochoerus
-Colorado
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Caroline du Sud</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Neochoerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aepycamelus
 Allosaurus
 Amebelodon
@@ -2160,12 +4269,92 @@
 Tricératops
 Tyrannosaure rex
 Ultrasauros
-Connecticut
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Connecticut</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ammosaurus
 Anchisaurus
 Coélophysis
 Erpetosuchus
-Dakota du Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dakota du Nord</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Archaeocyon
 Archaeotherium
 Brachycrus
@@ -2183,7 +4372,47 @@
 Richardoestesia
 Stygimoloch
 Wannaganosuchus
-Dakota du Sud
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Dakota du Sud</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Archaeocyon
 Archaeotherium
@@ -2233,9 +4462,87 @@
 Tricératops
 Tylosaurus
 Tyrannosaure rex
-Delaware
-Hemicyon (en)
-Floride
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Hemicyon (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Floride</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Capromeryx
 Carcharosaure
@@ -2255,22 +4562,182 @@
 Phorusrhacos
 Tératornis
 Titanis
-Géorgie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Géorgie</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Appalachisaure
 Enchodus
 Gavialosuchus
 Mammuthus columbi
 Xiphactinus
-Hawaii
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chelychelynechen
 Chtuluproles
 Ptaiochen
 Thambetochen
-Idaho
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Equus Simplicidens
 Panthera leo
 Ténontosaure
-Illinois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Arthrolycosa
 Arthropleura
@@ -2281,18 +4748,138 @@
 Euceratherium
 Stethacanthus
 Tullimonstrum
-Indiana
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Castoroides ohioensis
 Dasypus bellus
 Mammut americanum
 Potamornis
 Teleoceras
-Iowa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cervalces
 Cobelodus
 Dasypus bellus
 Stethacanthus
-Kansas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Apatornis
 Archaéovenator
@@ -2327,17 +4914,177 @@
 Titanotylopus
 Trinacromerum
 Xiphactinus
-Kentucky
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cervalces
 Mammut americanum
-Louisiane
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Louisiane</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Basilosaure
 Mammut americanum
 Mammuthus columbi
-Maine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Grand Pingouin
 Mammut americanum
-Maryland
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acrocanthosaurus
 Allosaurus
 Astrodon
@@ -2352,15 +5099,171 @@
 Priconodon
 Struthiomimus
 Ténontosaure
-Massachusetts
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Massachusetts</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchisaurus
 Podokesaurus
-Michigan
-Mammut americanum
-Hexagonaria (Pierre de Petoskey)
-Minnesota
-Pronghorn
-Mississippi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Mammut americanum
+Hexagonaria (Pierre de Petoskey)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Pronghorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Mississippi</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Basilosaure
 Enchodus
 Platecarpus
@@ -2368,11 +5271,91 @@
 Teilhardina magnolia
 Vancleavea
 Zygorhiza
-Missouri
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dasypus bellus
 Hypsibema
 Mammut americanum
-Montana
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achelousaurus
 Alamosaurus
 Albertaceratops
@@ -2457,7 +5440,47 @@
 Troodon
 Tyrannosaure rex
 Zéphyrosaure
-Nebraska
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albertosaurus
 Amebelodon
 Amphicyon
@@ -2498,7 +5521,47 @@
 Syndyoceras
 Teleoceras
 Titanotylopus
-Nevada
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Canadapsis
 Cymbospondylus
 Epigaulus
@@ -2508,7 +5571,47 @@
 Mixosaure
 Shonisaurus
 Tératornis
-New Jersey
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cervalces
 Cimoliasaure
 Diatryma
@@ -2524,10 +5627,90 @@
 Ornithomimus
 Protosphyraena
 Struthiomimus
-New York
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carcinosoma
 Mammut americanum
-Nouveau-Mexique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Nouveau-Mexique</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alamosaurus
 Albertosaurus
 Allosaurus
@@ -2586,7 +5769,47 @@
 Tanystropheus
 Thecodontosaure
 Zuniceratops
-Ohio
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acheloma
 Arthropleura
 Cladoselache
@@ -2602,7 +5825,47 @@
 Orthoceras
 Phlegethontia
 Stethacanthus
-Oklahoma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acheloma
 Acrocanthosaurus
 Allosaure
@@ -2622,7 +5885,47 @@
 Sauroposéidon
 Stégosaure
 Ténontosaure
-Oregon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aetiocetus
 Archaeocyon
 Bennettazhia
@@ -2637,7 +5940,47 @@
 Pronghorn
 Ptéranodon
 Stylemys
-Pennsylvanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pennsylvanie</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Arthropleura
 Dunkleosteus
@@ -2649,14 +5992,94 @@
 Kentriodon
 Platygonus
 Thecodontosaurus
-Tennessee
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dasypus bellus
 Dunkleosteus
 Enchodus
 Homotherium
 Mammuthus columbi
 Teleoceras
-Texas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acheloma
 Acrocanthosaurus
 Adelobasileus
@@ -2740,7 +6163,47 @@
 Tyrannosaure rex
 Varanosaure
 Xiphactinus
-Utah
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acrocanthosaurus
 Alamosaurus
 Allosaurus
@@ -2792,19 +6255,213 @@
 Uintathérium
 Utahraptor
 Venenosaure
-Virginie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Virginie</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Aegialornis
 Eobalaenoptera
 Kentriodon
 Mécistotrachelus
-Virginie-Occidentale
-Greenrerpeton
-Washington
-Mammut americanum
-Wisconsin
-Mammut americanum
-Wyoming
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Virginie-Occidentale</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Greenrerpeton</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mammut americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Mammut americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agathaumas
 Allosaurus
 Alphadon
@@ -2897,7 +6554,43 @@
 Troodon
 Tyrannosaure rex
 Uintathérium
- Éthiopie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Éthiopie</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ancylotherium
 Ardipithecus
 Arsinoitherium
@@ -2909,33 +6602,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> France
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aegialornis
 Aepisaurus
 Agriotherium (en)
@@ -3054,35 +6753,75 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Géorgie
-Struthio dmanisensis
- Grèce
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Géorgie</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Struthio dmanisensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grèce</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Athene cretensis
 Candiacervus
 Chalicotherium
@@ -3098,7 +6837,43 @@
 Panthera leo
 Sivapithecus
 Ursus spelaeus
- Groenland
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Groenland</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthostega
 Grand Pingouin
 Groenlandaspis
@@ -3108,44 +6883,155 @@
 Palaéniscum
 Pambdelurion
 Platéosaure
- Guinée
-Opisthocoelicaudia</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guinée</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Opisthocoelicaudia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Haïti
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haïti</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acratocnus
 Megalocnus
 Synocnus
- Honduras
-Mammut americanum
- Hongrie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Honduras</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mammut americanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hongrie</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bakonydraco
 Chalicotherium
 Hungarosaure
@@ -3157,35 +7043,75 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Îles Cook
-Aerodramusa
- Inde
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Îles Cook</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Aerodramusa</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inde</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Afromoloch
 Agriotherium (en)
 Alwalkeria
@@ -3258,7 +7184,43 @@
 Tyrannosaure rex
 Uintathérium
 Yarasuchus
- Indonésie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indonésie</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Babtomonotrenus
 Chelyphilus
 Chlorosaure
@@ -3283,7 +7245,43 @@
 Tiamatia
 Twitiavis
 Veraquilla
- Iran
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iran</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Helicoprion
 Iranotherium
 Osteolepis (en)
@@ -3291,19 +7289,161 @@
 Pseudocrania
 Alborzites
 Bobbodus
- Irlande
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Irlande</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Deltoptychius
 Grand Pingouin
 Groenlandaspis
 Mégalocéphalus
 Mégalocéros
- Islande
-Grand Pingouin
- Israël
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Islande</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Grand Pingouin</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Israël</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Nothosaure
 Pachyrhachis
 Tanystropheus
- Italie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anancus
 Askeptosaurus
 Clarazia
@@ -3353,36 +7493,78 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jamaïque
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jamaïque</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pezosiren
 Prorastomus
- Japon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japon</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acrioceras
 Agetolites
 Aglaocetus
@@ -3457,38 +7639,79 @@
 Yamatosaurus
 Yamatoum
 Yatsengia
- Jordanie
-Arambourgiania</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jordanie</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Arambourgiania</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kazakhstan
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kazakhstan</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Antarctosaurus
 Aralosaurus
@@ -3508,7 +7731,43 @@
 Prochenéosaure
 Sordes
 Tanius
- Kenya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kenya</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ancylotherium
 Archaeopotamus (en)
 Ardipithecus
@@ -3532,7 +7791,43 @@
 Spinosaure
 Theropithecus
 Titanosaure
- Kirghizistan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kirghizistan</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Coelodonta
 Ferganasaure
 Ferganocephale
@@ -3542,33 +7837,39 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Laos
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laos</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ichthyovenator
 Laosaurus
 Mandschurosaurus
@@ -3576,7 +7877,43 @@
 Shringasaurus
 Tangvayosaurus
 Titanosaure
- Lesotho
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lesotho</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abrictosaurus
 Blikanasaurus
 Dracovenator
@@ -3590,14 +7927,122 @@
 Mélanorosaure
 Syntarsus
 Thecodontosaure
- Lettonie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lettonie</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Osteolepis
 Panderichthys
- Liban
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liban</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eupodophis
 Protobrama
 Sclérorhynchus
- Libye
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Libye</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arsinoitherium
 Barytherium
 Elaphrosaurus
@@ -3610,42 +8055,120 @@
 Prolibytherium
 Sivatherium
 Stégodon
- Lituanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lituanie</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bos
 Orthoceras
- Luxembourg
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Luxembourg</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Microcleidus medusinae
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Madagascar
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Madagascar</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Æpyornis titan
 Ansérisaure
 Arbrosuchus
@@ -3679,22 +8202,198 @@
 Thadéosaure
 Titanosaure
 Triadobatrachus
- Malawi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malawi</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gigantosaurus
 Janenschia
 Karongasaure
 Malawisaurus
 Theropithecus
 Tornieria
- Mali
-Moeritherium
- Maldives
-Sivatherium
- Malte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mali</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Moeritherium</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maldives</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sivatherium</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Malte</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Elephas falconeri
 Hippopotamus
 Mégalodon
- Maroc
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maroc</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alanqa
 Atlasaurus
 Azendohsaurus
@@ -3726,10 +8425,82 @@
 Thililua
 Walliserops
 Witwatia
- Maurice
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maurice</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cylindraspis
 Dodo
- Mexique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexique</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albertosaurus
 Alexornis
 Apatosaure
@@ -3760,11 +8531,83 @@
 Torvoneustes
 Troodon
 Velafrons
- Moldavie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moldavie</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bos
 Elasmotherium
 Kentriodon
- Mongolie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mongolie</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillobator
 Adasaurus
 Airakoraptor
@@ -3886,46 +8729,157 @@
 Volaticotherium
 Yamacératops
 Zalambdalestes
- Mozambique
-Hippopotamus</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mozambique</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Hippopotamus</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Namibie
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Namibie</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aetonyx
 Agriotherium (en)
 Hippopotamus
 Massospondylus
 Syntarsus
- Népal
-Stégodon
- Niger
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Népal</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Stégodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niger</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aegyptosaurus
 Afromoloch
 Afrovenator
@@ -3958,15 +8912,123 @@
 Suchomimus
 Valdosaurus
 Zygorhiza
- Nigeria
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nigeria</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carcharodontosaure
 Goronyosaure
 Pluridens
- Nouvelle-Calédonie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Meiolania
 Mekosuchus
 Sylviornis
- Nouvelle-Zélande
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aigle géant de Haast
 Anomalopteryx
 Anthropornis (en)
@@ -3998,7 +9060,43 @@
 Tuarangisaure
 Tylosaurus
 Waimanu
- Norvège
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norvège</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aphaneramma
 Boréaspis
 Doryaspis
@@ -4009,40 +9107,116 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Oman
-Arsinoitherium
- Ouganda
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oman</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Arsinoitherium</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ouganda</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chalicotherium
 Hippopotamus
 Prodeinotherium (en)
 Theropithecus
- Ouzbékistan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ouzbékistan</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abavornis
 Amtosaurus
 Archaeornithomimus
@@ -4068,43 +9242,121 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Panama
+      <c r="F153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Panama</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Hemicyon (en)
 Neochoerus
- Papouasie-Nouvelle-Guinée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Papouasie-Nouvelle-Guinée</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hulitherium
 Liasis
 Protemnodon
 Pseudartamus
 Thylacine
- Pakistan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pakistan</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ambulocetus
 Arthropleura
 Balochisaure
@@ -4136,11 +9388,83 @@
 Sulaimanisaure
 Testudo atlas
 Vitakridrinda
- Paraguay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paraguay</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cerdocyon
 ScelidotheriumScelidotherium
 Stegomastodon
- Pays-Bas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Betasuchus
 Eucladoceros
 Hainosaure
@@ -4154,7 +9478,43 @@
 Plioplatecarpus
 Telmatosaure
 Ursus spelaeus
- Pérou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pérou</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acrophoca
 Icadyptes
 Kentriodon
@@ -4163,10 +9523,82 @@
 Odobenocetops
 Panthera leo
 Purussaurus
- Philippines
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippines</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mene
 Stégodon
- Pologne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pologne</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Alopecocyon
 Bos
 Coelodonta
@@ -4175,7 +9607,43 @@
 Silesaurus
 Succinodon
 Ursus spelaeus
- Portugal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Alocodon
 Anchitherium
@@ -4203,44 +9671,157 @@
 Phyllodon
 Rhamphorhynchus
 Torvosaure
- Porto Rico
-Acratocnus</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Porto Rico</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Acratocnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> République démocratique du Congo
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République démocratique du Congo</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hippopotamus
 Theropithecus
- République dominicaine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République dominicaine</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acratocnus
 Megalocnus
- République tchèque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> République tchèque</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Archaeothyris
 Capetus
@@ -4260,9 +9841,79 @@
 Phlegethontia
 Sauropleura
 Xiphactinus
- La Réunion
-Cylindraspis
- Roumanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Réunion</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Cylindraspis</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roumanie</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allodaposuchus
 Aristosuchus
 Bihariosaure
@@ -4289,8 +9940,47 @@
 Ursus spelaeus
 Valdosaure
 Zalmoxes
- Royaume-Uni
- Angleterre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Angleterre</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Acanthopholis
 Agnosphitys
@@ -4434,7 +10124,47 @@
 Walkersaure
 Xenoposeidon
 Yaverlandia
- Écosse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Écosse</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Adelospondylus
 Ainiktozoon
 Arthropleura
@@ -4467,14 +10197,90 @@
 Stethacanthus
 Tristychius
 Westlothiana
- Pays de Galles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays de Galles</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agrosaurus
 Brontoscorpio
 Morganucodon
 Syntarsus
 Terrestrisuchus
 Thecodontosaure
- Russie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Russie</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abakania
 Abakanicyathus
 Acinacodus
@@ -4910,37 +10716,111 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sainte-Hélène, Ascension et Tristan da Cunha
-Upupa antaios
- Sénégal
-Moeritherium
- Serbie
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sainte-Hélène, Ascension et Tristan da Cunha</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Upupa antaios</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sénégal</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Moeritherium</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbie</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Ancylotherium
 Androgynoceras
@@ -4969,13 +10849,85 @@
 Trigonia
 Tuberosciponoceras
 Ursus spelaeus
- Slovaquie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Slovaquie</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthodes
 Alopecocyon
 Chalicotherium
 Keraterpeton
 Phlegethontia
- Suède
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suède</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clidastes
 Gerrothorax
 Hainosaure
@@ -4983,7 +10935,43 @@
 Orthoceras
 Palaéophonus
 Plioplatecarpus
- Suisse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Anchitherium
 Askeptosaurus
@@ -5004,53 +10992,268 @@
 Tanystropheus
 Ticinosuchus
 Ursus spelaeus
- Somalie
-Hippopotamus
- Soudan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Somalie</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Hippopotamus</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Soudan</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bahariasaure
 Carcharodontosaure
 Hippopotamus
 Spinosaure
- Sri Lanka
-Panthera leo
- Syrie
-Syrian Camel</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Panthera leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Syrie</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Syrian Camel</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tadjikistan
+      <c r="F182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tadjikistan</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chalicotherium
 Eucladoceros
 Troodon
- Taïwan
-Stégodon
- Tanzanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Taïwan</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Stégodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tanzanie</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Ancylotherium
 Anthodon
@@ -5083,10 +11286,82 @@
 Theropithecus
 Tornieria
 Witwatia
- Tchad
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tchad</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hippopotamus
 Mammuthus africanavus
- Thaïlande
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thaïlande</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Atrypa
 Basilochelys
 Chalawan thailandicus
@@ -5131,7 +11406,43 @@
 Timidonella
 Trigonia
 Vayuraptor
- Tunisie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tunisie</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carcharodontosaure
 Elaphrosaurus
 Iguanodon
@@ -5141,9 +11452,79 @@
 Rebbachisaure
 Spinosaure
 Witwatia
- Turkménistan
-Longisquama
- Turquie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turkménistan</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Longisquama</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turquie</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anchitherium
 Ankarapithèque
 Bramathérium
@@ -5156,33 +11537,39 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ukraine
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ukraine</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anancus
 Anchitherium
 Belemnitella
@@ -5205,7 +11592,43 @@
 Tylocidaris
 Ukrainaspis
 Ukrainurus
- Uruguay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uruguay</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Antarctosaurus
 Argyrosaurus
 Cerdocyon
@@ -5219,35 +11642,75 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vanuatu
-Mekosuchus
- Venezuela
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vanuatu</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Mekosuchus</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venezuela</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cerdocyon
 Macrauchenia
 Purussaurus
@@ -5258,36 +11721,78 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Zambie
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zambie</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cistecephalus
 Hippopotamus
- Zimbabwe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Liste_d'animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27animaux_fossiles_par_pays</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zimbabwe</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allosaurus
 Amphicoelias
 Barosaurus
